--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/106.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/106.xlsx
@@ -479,13 +479,13 @@
         <v>-0.187706935502004</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.520854953141355</v>
+        <v>-2.521987575838076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.122196654702366</v>
+        <v>0.1213964387744726</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2877542091257201</v>
+        <v>-0.2877944638903855</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1824397930365053</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.629242736764899</v>
+        <v>-2.630748020995112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06508002300761738</v>
+        <v>0.06424687136317953</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3105963483906117</v>
+        <v>-0.3105902491838442</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1912241206475128</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.743940759710078</v>
+        <v>-2.745343577266598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06638403341450473</v>
+        <v>0.06572592900429357</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3218048606672108</v>
+        <v>-0.3221665436285223</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2164784590075238</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.90245304439013</v>
+        <v>-2.904215105225255</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02736862756428496</v>
+        <v>0.02645679615254661</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3293489695179075</v>
+        <v>-0.3295600020720623</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2500178551442223</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.979354282997233</v>
+        <v>-2.981696683356283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07562799119129829</v>
+        <v>0.07492353280965429</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3199250851414732</v>
+        <v>-0.3203715470768528</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2754087895404062</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.879723740450437</v>
+        <v>-2.881507148509248</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1293924988466396</v>
+        <v>0.1283001309145838</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3263463300262768</v>
+        <v>-0.3264799026544846</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2785382937959671</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.698943251862313</v>
+        <v>-2.700394863072973</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1704218627714815</v>
+        <v>0.1690037971980422</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3676160026977573</v>
+        <v>-0.3677093205612998</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2520938752893302</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.488066837400732</v>
+        <v>-2.490399174068617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1850398316311022</v>
+        <v>0.1840011367186002</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3722209038072052</v>
+        <v>-0.3725459915279119</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1951758610295375</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.078346523588457</v>
+        <v>-2.080283021737132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2187379490214324</v>
+        <v>0.2182243958116105</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3349584099819594</v>
+        <v>-0.3349986647466247</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1080395823825341</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.712705177084764</v>
+        <v>-1.715505322911714</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2089529916043633</v>
+        <v>0.2089383535081213</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2895559148048339</v>
+        <v>-0.2898602652225312</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.004676484179328342</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.292912633216671</v>
+        <v>-1.295663985389481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1391707471362645</v>
+        <v>0.1394080062795195</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2452421280357038</v>
+        <v>-0.2454928054338472</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1344496818284107</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7918774353643833</v>
+        <v>-0.7941231632961696</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07098771468259907</v>
+        <v>0.0716824143334151</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2076704044273467</v>
+        <v>-0.2078015373728475</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2638802031300433</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3858928856971897</v>
+        <v>-0.3882892640361328</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08392847768734717</v>
+        <v>-0.0830074974654576</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1616457901599382</v>
+        <v>-0.162101400905469</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.382392265101669</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05567260648945533</v>
+        <v>0.0529511404298055</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2919315558407676</v>
+        <v>-0.2904494485962698</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09557369316849783</v>
+        <v>-0.0962153297204368</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4904798110258809</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5348086024431039</v>
+        <v>0.5316443339721351</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.41239820854663</v>
+        <v>-0.410054893306564</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02401657953106218</v>
+        <v>-0.02477654069429026</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5965957527211013</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9386968547443144</v>
+        <v>0.9348092203507223</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.562264867633779</v>
+        <v>-0.5601020889140305</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02383901660794394</v>
+        <v>0.02299000702591064</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7046004051276581</v>
       </c>
       <c r="E18" t="n">
-        <v>1.374887725927455</v>
+        <v>1.370105947821751</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7767190767851637</v>
+        <v>-0.7745398302071429</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08855586985565013</v>
+        <v>0.08736957413937516</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8149424253976064</v>
       </c>
       <c r="E19" t="n">
-        <v>1.706308862941522</v>
+        <v>1.701016581229379</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9476322686648581</v>
+        <v>-0.9453334776341946</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1963623990742531</v>
+        <v>0.1949107878635927</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.924628047018621</v>
       </c>
       <c r="E20" t="n">
-        <v>2.032726820644225</v>
+        <v>2.027005764696328</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.110241390530627</v>
+        <v>-1.107252779214562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2855376813802332</v>
+        <v>0.2841501118406313</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.030478611877736</v>
       </c>
       <c r="E21" t="n">
-        <v>2.267826234782854</v>
+        <v>2.261755084366504</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.360049041789037</v>
+        <v>-1.357217790007572</v>
       </c>
       <c r="G21" t="n">
-        <v>0.35508022702237</v>
+        <v>0.3534889439767343</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.128765008779771</v>
       </c>
       <c r="E22" t="n">
-        <v>2.52333054516209</v>
+        <v>2.51730818839988</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.634621302285447</v>
+        <v>-1.632702491836398</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4716311889835099</v>
+        <v>0.4699081630716966</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.215287703404009</v>
       </c>
       <c r="E23" t="n">
-        <v>2.706865435526409</v>
+        <v>2.700793065268705</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.920062349241508</v>
+        <v>-1.917990448702595</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5999883854844619</v>
+        <v>0.5982495016350532</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.287207517164441</v>
       </c>
       <c r="E24" t="n">
-        <v>2.831351465492041</v>
+        <v>2.824539871374119</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.206734216123246</v>
+        <v>-2.204696471142231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7115733732955191</v>
+        <v>0.7093349644118537</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.341261442771825</v>
       </c>
       <c r="E25" t="n">
-        <v>2.961036459306273</v>
+        <v>2.954195588995868</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.456296069348926</v>
+        <v>-2.454484604938984</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8137460652230003</v>
+        <v>0.8116692853186731</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.375937861774129</v>
       </c>
       <c r="E26" t="n">
-        <v>3.020892854680974</v>
+        <v>3.014177628029978</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.687592628068031</v>
+        <v>-2.686247143055125</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9172477743051155</v>
+        <v>0.9152819999639565</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.3895286009367</v>
       </c>
       <c r="E27" t="n">
-        <v>3.013596983545714</v>
+        <v>3.00771612838051</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.901013021672328</v>
+        <v>-2.900293315273765</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9712989446785284</v>
+        <v>0.9697381576667301</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.381684234131994</v>
       </c>
       <c r="E28" t="n">
-        <v>3.022697000042795</v>
+        <v>3.017226011572365</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.123382171445872</v>
+        <v>-3.12351391431205</v>
       </c>
       <c r="G28" t="n">
-        <v>1.020576265915034</v>
+        <v>1.019154540817534</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.353236940823162</v>
       </c>
       <c r="E29" t="n">
-        <v>3.016570956765538</v>
+        <v>3.011027997655251</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.276347837491578</v>
+        <v>-3.276815646650644</v>
       </c>
       <c r="G29" t="n">
-        <v>1.09737930729318</v>
+        <v>1.096574821920549</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.307246655675797</v>
       </c>
       <c r="E30" t="n">
-        <v>2.913089375065755</v>
+        <v>2.90805265011717</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.339915905144629</v>
+        <v>-3.34057217979281</v>
       </c>
       <c r="G30" t="n">
-        <v>1.092989708182624</v>
+        <v>1.092254753767143</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.247902818608155</v>
       </c>
       <c r="E31" t="n">
-        <v>2.852773099500786</v>
+        <v>2.848425584916926</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.416196854423479</v>
+        <v>-3.417232194772259</v>
       </c>
       <c r="G31" t="n">
-        <v>1.139477252243684</v>
+        <v>1.13894906093762</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.179049288784645</v>
       </c>
       <c r="E32" t="n">
-        <v>2.777965108656284</v>
+        <v>2.774832556060506</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.458211850161946</v>
+        <v>-3.459896146110785</v>
       </c>
       <c r="G32" t="n">
-        <v>1.091977239859222</v>
+        <v>1.091814391038531</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.104383015255472</v>
       </c>
       <c r="E33" t="n">
-        <v>2.600870980638424</v>
+        <v>2.59791408519755</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.425356033226205</v>
+        <v>-3.427156519063965</v>
       </c>
       <c r="G33" t="n">
-        <v>1.061540368327464</v>
+        <v>1.061295790136088</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.026040471468551</v>
       </c>
       <c r="E34" t="n">
-        <v>2.548278740523793</v>
+        <v>2.545570692719032</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.254365381420563</v>
+        <v>-3.255734043419186</v>
       </c>
       <c r="G34" t="n">
-        <v>1.009380561972647</v>
+        <v>1.009193926245562</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9466820161085548</v>
       </c>
       <c r="E35" t="n">
-        <v>2.428134125935253</v>
+        <v>2.425206506686863</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.09061845253232</v>
+        <v>-3.09192947702699</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9785356535081441</v>
+        <v>0.97853077414273</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8672138497084759</v>
       </c>
       <c r="E36" t="n">
-        <v>2.302584394309373</v>
+        <v>2.300589953696406</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.000631365805589</v>
+        <v>-3.002138479797833</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8859777511289193</v>
+        <v>0.8862875908327073</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7899862824069914</v>
       </c>
       <c r="E37" t="n">
-        <v>2.17397042120351</v>
+        <v>2.171635644852918</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.812245166378416</v>
+        <v>-2.813637615283432</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7786408608314123</v>
+        <v>0.7789092259291814</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7156595486752987</v>
       </c>
       <c r="E38" t="n">
-        <v>2.039402402451232</v>
+        <v>2.037479932478122</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.636808192839281</v>
+        <v>-2.638003637365708</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7158123219989181</v>
+        <v>0.7157610886620713</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6463176282595143</v>
       </c>
       <c r="E39" t="n">
-        <v>1.877708771521261</v>
+        <v>1.876127247206454</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.435633176662055</v>
+        <v>-2.436597461251994</v>
       </c>
       <c r="G39" t="n">
-        <v>0.643070132486561</v>
+        <v>0.6431951662252944</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5821191731832525</v>
       </c>
       <c r="E40" t="n">
-        <v>1.78145352999959</v>
+        <v>1.780262964838578</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.289649272603084</v>
+        <v>-2.290297618282468</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5567328110894897</v>
+        <v>0.5572481940613417</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5234943707829754</v>
       </c>
       <c r="E41" t="n">
-        <v>1.676786262504209</v>
+        <v>1.675914685857136</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.202553209884138</v>
+        <v>-2.203169229767654</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4814161464005789</v>
+        <v>0.4819357988171683</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4692788921600399</v>
       </c>
       <c r="E42" t="n">
-        <v>1.478325393338512</v>
+        <v>1.477815499652751</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.122096743652272</v>
+        <v>-2.122734110759473</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4498838573333811</v>
+        <v>0.4506639458789419</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4185950318099904</v>
       </c>
       <c r="E43" t="n">
-        <v>1.337484950346558</v>
+        <v>1.337517886063102</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.019611772338296</v>
+        <v>-2.020118616420673</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4196775358174336</v>
+        <v>0.420494829524276</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3701788181079001</v>
       </c>
       <c r="E44" t="n">
-        <v>1.166056375495011</v>
+        <v>1.166235082253299</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.962475623181891</v>
+        <v>-1.962828767253728</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4008431853194535</v>
+        <v>0.4016525500574982</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3230774159778742</v>
       </c>
       <c r="E45" t="n">
-        <v>1.084939365170227</v>
+        <v>1.085624916010891</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.91625827398063</v>
+        <v>-1.916488823996441</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3536780193865262</v>
+        <v>0.3546971968373722</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2767641238122279</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9625911071765964</v>
+        <v>0.9635273354154046</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.893033104530741</v>
+        <v>-1.893388078364608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3134110563076194</v>
+        <v>0.3146955492528508</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2308266491411754</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8214396046395003</v>
+        <v>0.8227893590971438</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.879936887759607</v>
+        <v>-1.88043336319048</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2782533987378311</v>
+        <v>0.2793884611172592</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1857576180100841</v>
       </c>
       <c r="E48" t="n">
-        <v>0.730911518272493</v>
+        <v>0.7324649862361703</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.933195771173924</v>
+        <v>-1.933929505748052</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2566902631320803</v>
+        <v>0.2582870354638067</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1414935238746324</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7092068810697366</v>
+        <v>0.7109024605510963</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.882164927991767</v>
+        <v>-1.882911470900107</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2436324713635811</v>
+        <v>0.2451542234520675</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0986704461219032</v>
       </c>
       <c r="E50" t="n">
-        <v>0.659154350653084</v>
+        <v>0.6610463245923565</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.878815243635067</v>
+        <v>-1.879849059182155</v>
       </c>
       <c r="G50" t="n">
-        <v>0.194503360851525</v>
+        <v>0.1959421637279737</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05686632850213134</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5875185572483479</v>
+        <v>0.5894727430966487</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.942082315434143</v>
+        <v>-1.943188711541764</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1761703651498319</v>
+        <v>0.1773420227698649</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01650943672218106</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4753785416214499</v>
+        <v>0.4772577072265107</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.897884413593595</v>
+        <v>-1.899296379960267</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1139901719967209</v>
+        <v>0.1152710054178918</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02285107151094966</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4311989374012044</v>
+        <v>0.433342198659297</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.905153448219078</v>
+        <v>-1.90688806262375</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1200601025717176</v>
+        <v>0.1216379673624648</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06065243496764961</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3190125678028736</v>
+        <v>0.3214132155865539</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.859225201418596</v>
+        <v>-1.860699379694296</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08692250228331883</v>
+        <v>0.08817039998794535</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.09749243719256323</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2956861515206441</v>
+        <v>0.2983051509066003</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.873452211124421</v>
+        <v>-1.874855028680942</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1026590656640955</v>
+        <v>0.1041917963247633</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1327018496017242</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2595867764259568</v>
+        <v>0.2621045289795728</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.826970766270129</v>
+        <v>-1.828215004450695</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07316391165723614</v>
+        <v>0.07482411573934435</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1665975936987724</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2490754034828808</v>
+        <v>0.251764543746663</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.832989463508278</v>
+        <v>-1.834539881868572</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05032848151978885</v>
+        <v>0.05206065624175333</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1984859242488101</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1889518628517642</v>
+        <v>0.1918215396358638</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.833881167537684</v>
+        <v>-1.834767382280999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02443002974371281</v>
+        <v>0.02573769967466065</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.228146217337262</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1598763342705075</v>
+        <v>0.1632528551369848</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.870050073589521</v>
+        <v>-1.871392508999043</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001047500759222513</v>
+        <v>0.00240518418566369</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2551122198781179</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1556867891419251</v>
+        <v>0.1586918683162628</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.806828745841201</v>
+        <v>-1.808201067363884</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.002903565384751406</v>
+        <v>-0.001731297844041639</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2793294492587169</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1253981283346166</v>
+        <v>0.128638636890179</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.833018739700762</v>
+        <v>-1.834136724301242</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02241614767527527</v>
+        <v>-0.02129511347141234</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3005907705277294</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1447271245014393</v>
+        <v>0.147865166383308</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.779390854277013</v>
+        <v>-1.780874181362864</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.04431900909797479</v>
+        <v>-0.04316259949486047</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.318845050264261</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09240446932593037</v>
+        <v>0.09530159254048365</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.816028179408592</v>
+        <v>-1.817634710471146</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.07402885518304944</v>
+        <v>-0.07282426184647202</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.333875022300157</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1009671457067964</v>
+        <v>0.1035574788209454</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.782403862420148</v>
+        <v>-1.784204348257908</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0495594475525941</v>
+        <v>-0.04843170422128694</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3453728341792233</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0975308526139978</v>
+        <v>0.1002712262146268</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.795210976790504</v>
+        <v>-1.797170042004218</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.09072421386767403</v>
+        <v>-0.08925430503671121</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.353447805231974</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09491612267277888</v>
+        <v>0.09713928353952554</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.815787260741276</v>
+        <v>-1.817462102919626</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.08210908430860771</v>
+        <v>-0.0807764076299132</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3579433241011556</v>
       </c>
       <c r="E67" t="n">
-        <v>0.104834042797379</v>
+        <v>0.1071444223209007</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.776834676720761</v>
+        <v>-1.77815149546186</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09943754065569678</v>
+        <v>-0.09839884574319484</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3592833136972546</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01416079530930576</v>
+        <v>0.01594664305082407</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.81117077113897</v>
+        <v>-1.81276876331205</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1409749685042698</v>
+        <v>-0.1396685184146754</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3576058973446621</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01302031964997144</v>
+        <v>-0.01085876077157633</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.831116397109985</v>
+        <v>-1.832508846015001</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1460421894866926</v>
+        <v>-0.14452348700159</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3531807183854959</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06057148936509573</v>
+        <v>0.06239942163330966</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.774485262273928</v>
+        <v>-1.775490411549209</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1384547762679468</v>
+        <v>-0.1370117039467609</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3459711199549801</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06827234782971671</v>
+        <v>0.07013138605244479</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.758622445313065</v>
+        <v>-1.759940483895517</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1810418776012032</v>
+        <v>-0.1796951727469435</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3356204988019784</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1224198856700558</v>
+        <v>0.123767810365669</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.71544982013013</v>
+        <v>-1.716467167818946</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1759057355823078</v>
+        <v>-0.1750445275867396</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3219645790488753</v>
       </c>
       <c r="E73" t="n">
-        <v>0.15714693924206</v>
+        <v>0.158311277813972</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.672191806052451</v>
+        <v>-1.673274415253678</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1561583338312359</v>
+        <v>-0.154800040484118</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3044497346283822</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2555905761519035</v>
+        <v>0.2565341234388328</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.595480252775817</v>
+        <v>-1.596446977048463</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1851076088324057</v>
+        <v>-0.1838895972409399</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2830838401781932</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3507345422005401</v>
+        <v>0.3521855434905237</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.535228018881907</v>
+        <v>-1.535765968918799</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.161404261571946</v>
+        <v>-0.1602502916515386</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2573230286973107</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4616260502021347</v>
+        <v>0.4626531566217785</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.532537658776771</v>
+        <v>-1.533253095730597</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1766108038846285</v>
+        <v>-0.1753244811773669</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2276963168835789</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5807832032150191</v>
+        <v>0.5822433533151539</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.450916244052316</v>
+        <v>-1.451155332957601</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2005239638578896</v>
+        <v>-0.1995944447465256</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1944017280851893</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7611318679640058</v>
+        <v>0.7623559787622392</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.410112550777871</v>
+        <v>-1.410219896816978</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2031679699915925</v>
+        <v>-0.2022756560415101</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1584122625698467</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9615225261509337</v>
+        <v>0.9632766580172611</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.359096955612633</v>
+        <v>-1.358780406781401</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1841073389225389</v>
+        <v>-0.183056445596502</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1202223837574282</v>
       </c>
       <c r="E80" t="n">
-        <v>1.139144845474857</v>
+        <v>1.141062436082553</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.335881544893571</v>
+        <v>-1.335782127823262</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1928572609511666</v>
+        <v>-0.1920631442300406</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.0808370429440205</v>
       </c>
       <c r="E81" t="n">
-        <v>1.303919185743082</v>
+        <v>1.306493660919635</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284751284641105</v>
+        <v>-1.284456083033559</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.124105782426772</v>
+        <v>-0.1232451843518805</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.04106078196874465</v>
       </c>
       <c r="E82" t="n">
-        <v>1.536730177502553</v>
+        <v>1.538889296698241</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.308504035476381</v>
+        <v>-1.30811978545003</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.09061808766991987</v>
+        <v>-0.08984287848977308</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.002052749874925522</v>
       </c>
       <c r="E83" t="n">
-        <v>1.744629569140926</v>
+        <v>1.746849070483612</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.229109441142733</v>
+        <v>-1.228450726811845</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07515354891097285</v>
+        <v>-0.07470037784814905</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.03499739683578346</v>
       </c>
       <c r="E84" t="n">
-        <v>1.960907441115787</v>
+        <v>1.962319407482459</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.140211672744674</v>
+        <v>-1.139366322686701</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09465515262931526</v>
+        <v>-0.09409097600332331</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.06882064756734298</v>
       </c>
       <c r="E85" t="n">
-        <v>2.074372204452582</v>
+        <v>2.07583357439407</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.066701593100291</v>
+        <v>-1.066161203380692</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06371570645991652</v>
+        <v>-0.06309480721098699</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0983435049042605</v>
       </c>
       <c r="E86" t="n">
-        <v>2.182525168615578</v>
+        <v>2.18359009011718</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.009125081215274</v>
+        <v>-1.008298028777604</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06844503138742096</v>
+        <v>-0.06793879722572008</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1224197776796942</v>
       </c>
       <c r="E87" t="n">
-        <v>2.313580044269786</v>
+        <v>2.314688880060114</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8663206936441907</v>
+        <v>-0.8655381654159229</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06654634832070426</v>
+        <v>-0.06625236655451169</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.139735686392507</v>
       </c>
       <c r="E88" t="n">
-        <v>2.406359957775348</v>
+        <v>2.407463914200262</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7891645081942079</v>
+        <v>-0.7885301906903899</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05102691670084993</v>
+        <v>-0.05087321669030941</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1493428078381155</v>
       </c>
       <c r="E89" t="n">
-        <v>2.440985154594335</v>
+        <v>2.441840263383136</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7377189189518627</v>
+        <v>-0.7372755066198668</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.04968143168794371</v>
+        <v>-0.04957957493492678</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1509161715949011</v>
       </c>
       <c r="E90" t="n">
-        <v>2.448594524957444</v>
+        <v>2.448651857501058</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6562621828101293</v>
+        <v>-0.6557949835717403</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05444735185605303</v>
+        <v>-0.05449858519289987</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1443094016293715</v>
       </c>
       <c r="E91" t="n">
-        <v>2.392856313992146</v>
+        <v>2.392445227456018</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5131064809292392</v>
+        <v>-0.5121733022938146</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04552238259319871</v>
+        <v>-0.04539734885446535</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1299920496103137</v>
       </c>
       <c r="E92" t="n">
-        <v>2.339884703216577</v>
+        <v>2.339644394469938</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4338942528779386</v>
+        <v>-0.4334904853899313</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04242520539667206</v>
+        <v>-0.04225625736921285</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1086033200884095</v>
       </c>
       <c r="E93" t="n">
-        <v>2.241757005217289</v>
+        <v>2.241171481367611</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3472397727289582</v>
+        <v>-0.3469018766740398</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04062959892432578</v>
+        <v>-0.04067107353034465</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08236803261813921</v>
       </c>
       <c r="E94" t="n">
-        <v>2.135471618166496</v>
+        <v>2.135009908214197</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2632652840336089</v>
+        <v>-0.2630816979099077</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08738123863841792</v>
+        <v>-0.08744832991286021</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05329264749628038</v>
       </c>
       <c r="E95" t="n">
-        <v>1.980456008726239</v>
+        <v>1.980041262666051</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1879156836281538</v>
+        <v>-0.1878827479116094</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09307240847315405</v>
+        <v>-0.09307789775924478</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.02487181657633523</v>
       </c>
       <c r="E96" t="n">
-        <v>1.806336463848881</v>
+        <v>1.806063829306374</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.07894054639290154</v>
+        <v>-0.07876854876205859</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08057635364793983</v>
+        <v>-0.08045436951259023</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.909984538132878e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>1.671208537915348</v>
+        <v>1.670834046619825</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.011902944970169</v>
+        <v>-0.01154675129494813</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08741051483090183</v>
+        <v>-0.08758861166851226</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01949341284742781</v>
       </c>
       <c r="E98" t="n">
-        <v>1.506650719487369</v>
+        <v>1.506204257551989</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02804868911885904</v>
+        <v>0.02861469550688124</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1101306699604437</v>
+        <v>-0.1099934378081754</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03146040211598018</v>
       </c>
       <c r="E99" t="n">
-        <v>1.415477337044362</v>
+        <v>1.414844239381898</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07277661202750112</v>
+        <v>0.07302911918767481</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.100780585985896</v>
+        <v>-0.1003890169114238</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03839891666259563</v>
       </c>
       <c r="E100" t="n">
-        <v>1.271011525549817</v>
+        <v>1.270409533841867</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1163389765228777</v>
+        <v>0.116768970599985</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1331228497118153</v>
+        <v>-0.1327416492888477</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04284850404442803</v>
       </c>
       <c r="E101" t="n">
-        <v>1.188505725844077</v>
+        <v>1.188327629006467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1478383298735311</v>
+        <v>0.148117063622805</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1746938231976094</v>
+        <v>-0.1746797950220442</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05017422996968833</v>
       </c>
       <c r="E102" t="n">
-        <v>1.111506290008018</v>
+        <v>1.111474574132828</v>
       </c>
       <c r="F102" t="n">
-        <v>0.166411634321863</v>
+        <v>0.1667318426771557</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.181405390324545</v>
+        <v>-0.1813553768290517</v>
       </c>
     </row>
   </sheetData>
